--- a/Data/EC/NIT-8904812958.xlsx
+++ b/Data/EC/NIT-8904812958.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B429D7-26E8-415F-864B-0C4A6DF8DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9526290E-BA12-4A89-A588-17738A652998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5FEE01C0-DCCA-48D7-9B28-C6F3EFC47771}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AE2A704-67F5-47DC-A22C-3FE1FB297DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="152">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,391 +71,394 @@
     <t>LORENA PATRICIA PADILLA CORRALES</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>72265039</t>
+  </si>
+  <si>
+    <t>WILIAN JOSE BOSSIO TORRES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>8569699</t>
+  </si>
+  <si>
+    <t>JORGE ELIECER PADILLA BENITEZ</t>
+  </si>
+  <si>
+    <t>22913834</t>
+  </si>
+  <si>
+    <t>YISET CONSUELO TORRES CARO</t>
+  </si>
+  <si>
+    <t>73228321</t>
+  </si>
+  <si>
+    <t>PEDRO RAFAEL RODRIGUEZ VERGARA</t>
+  </si>
+  <si>
+    <t>73290123</t>
+  </si>
+  <si>
+    <t>PEDRO CESAR JOLY ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>30880016</t>
+  </si>
+  <si>
+    <t>EQUILES CARINA RODRIGUEZ ANGULO</t>
+  </si>
+  <si>
+    <t>73271016</t>
+  </si>
+  <si>
+    <t>MANUEL JOSE NARVAEZ CARO</t>
+  </si>
+  <si>
+    <t>1001780937</t>
+  </si>
+  <si>
+    <t>VICTOR JOSE GUTIERREZ VILLALBA</t>
+  </si>
+  <si>
+    <t>72261912</t>
+  </si>
+  <si>
+    <t>JESUS RAFAEL GUZMAN VILLALBA</t>
+  </si>
+  <si>
+    <t>8678382</t>
+  </si>
+  <si>
+    <t>WALTER ANDRES DIAZ RAMOS</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>2312</t>
   </si>
   <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>72265039</t>
-  </si>
-  <si>
-    <t>WILIAN JOSE BOSSIO TORRES</t>
-  </si>
-  <si>
-    <t>8569699</t>
-  </si>
-  <si>
-    <t>JORGE ELIECER PADILLA BENITEZ</t>
-  </si>
-  <si>
-    <t>22913834</t>
-  </si>
-  <si>
-    <t>YISET CONSUELO TORRES CARO</t>
-  </si>
-  <si>
-    <t>73228321</t>
-  </si>
-  <si>
-    <t>PEDRO RAFAEL RODRIGUEZ VERGARA</t>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>73290123</t>
-  </si>
-  <si>
-    <t>PEDRO CESAR JOLY ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>30880016</t>
-  </si>
-  <si>
-    <t>EQUILES CARINA RODRIGUEZ ANGULO</t>
-  </si>
-  <si>
-    <t>73271016</t>
-  </si>
-  <si>
-    <t>MANUEL JOSE NARVAEZ CARO</t>
-  </si>
-  <si>
-    <t>1001780937</t>
-  </si>
-  <si>
-    <t>VICTOR JOSE GUTIERREZ VILLALBA</t>
-  </si>
-  <si>
-    <t>72261912</t>
-  </si>
-  <si>
-    <t>JESUS RAFAEL GUZMAN VILLALBA</t>
-  </si>
-  <si>
-    <t>8678382</t>
-  </si>
-  <si>
-    <t>WALTER ANDRES DIAZ RAMOS</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -554,7 +557,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -567,9 +572,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -769,23 +772,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,10 +816,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,7 +872,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA06F4C-3B26-1629-7185-C0966A014F60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA9FC28-C092-D205-71B0-D631F668EE95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,8 +1223,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70564D74-AC4E-422E-AA13-4153CBA68DAC}">
-  <dimension ref="B2:J293"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E344F6-5C97-4D70-B051-2EBFD8A0F238}">
+  <dimension ref="B2:J294"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1245,7 +1248,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1290,7 +1293,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1322,12 +1325,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>14390278</v>
+        <v>14430278</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1338,17 +1341,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1375,13 +1378,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1412,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>79246</v>
+        <v>84000</v>
       </c>
       <c r="G17" s="18">
-        <v>1981153</v>
+        <v>4183151</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1441,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>79246</v>
@@ -1464,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>79246</v>
@@ -1487,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>79246</v>
@@ -1510,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>79246</v>
@@ -1533,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>79246</v>
@@ -1556,7 +1559,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>79246</v>
@@ -1579,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>79246</v>
@@ -1602,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>79246</v>
@@ -1625,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>79246</v>
@@ -1648,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>79246</v>
@@ -1671,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>79246</v>
@@ -1694,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>79246</v>
@@ -1717,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>79246</v>
@@ -1740,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>79246</v>
@@ -1763,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>79246</v>
@@ -1786,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>79246</v>
@@ -1809,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>79246</v>
@@ -1832,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>79246</v>
@@ -1855,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>79246</v>
@@ -1878,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>79246</v>
@@ -1901,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>79246</v>
@@ -1924,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>79246</v>
@@ -1947,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>79246</v>
@@ -1970,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>79246</v>
@@ -1993,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>79246</v>
@@ -2016,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>79246</v>
@@ -2039,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>79246</v>
@@ -2062,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>79246</v>
@@ -2085,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>79246</v>
@@ -2108,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>79246</v>
@@ -2131,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>79246</v>
@@ -2154,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>79246</v>
@@ -2177,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>79246</v>
@@ -2200,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>79246</v>
@@ -2223,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>79246</v>
@@ -2246,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>79246</v>
@@ -2269,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>79246</v>
@@ -2292,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>79246</v>
@@ -2315,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>79246</v>
@@ -2338,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>79246</v>
@@ -2361,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>79246</v>
@@ -2384,7 +2387,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>79246</v>
@@ -2407,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
         <v>79246</v>
@@ -2430,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
         <v>79246</v>
@@ -2453,7 +2456,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>79246</v>
@@ -2476,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>79246</v>
@@ -2499,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>79246</v>
@@ -2522,7 +2525,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
         <v>79246</v>
@@ -2545,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
         <v>79246</v>
@@ -2568,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
         <v>79246</v>
@@ -2591,7 +2594,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F68" s="18">
         <v>79246</v>
@@ -2614,7 +2617,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
         <v>79246</v>
@@ -2637,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
         <v>79246</v>
@@ -2660,7 +2663,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="18">
         <v>79246</v>
@@ -2683,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
         <v>79246</v>
@@ -2706,7 +2709,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="18">
         <v>79246</v>
@@ -2723,19 +2726,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G74" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2746,19 +2749,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F75" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G75" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2769,19 +2772,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F76" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G76" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2792,19 +2795,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F77" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G77" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2815,19 +2818,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G78" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2838,19 +2841,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F79" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G79" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2861,19 +2864,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F80" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G80" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2884,19 +2887,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F81" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G81" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2907,19 +2910,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F82" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G82" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2936,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F83" s="18">
         <v>79246</v>
@@ -2959,7 +2962,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F84" s="18">
         <v>79246</v>
@@ -2982,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F85" s="18">
         <v>79246</v>
@@ -3005,7 +3008,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F86" s="18">
         <v>79246</v>
@@ -3028,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F87" s="18">
         <v>79246</v>
@@ -3051,7 +3054,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F88" s="18">
         <v>79246</v>
@@ -3074,7 +3077,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F89" s="18">
         <v>79246</v>
@@ -3097,7 +3100,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F90" s="18">
         <v>79246</v>
@@ -3120,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F91" s="18">
         <v>79246</v>
@@ -3143,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F92" s="18">
         <v>79246</v>
@@ -3166,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F93" s="18">
         <v>79246</v>
@@ -3189,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F94" s="18">
         <v>79246</v>
@@ -3212,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F95" s="18">
         <v>79246</v>
@@ -3235,7 +3238,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F96" s="18">
         <v>79246</v>
@@ -3258,7 +3261,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F97" s="18">
         <v>79246</v>
@@ -3281,7 +3284,7 @@
         <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F98" s="18">
         <v>79246</v>
@@ -3304,7 +3307,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F99" s="18">
         <v>79246</v>
@@ -3321,19 +3324,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F100" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G100" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3344,19 +3347,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F101" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G101" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3367,19 +3370,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F102" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G102" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3390,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F103" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G103" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3413,19 +3416,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F104" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G104" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3436,19 +3439,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F105" s="18">
-        <v>79246</v>
+        <v>36341</v>
       </c>
       <c r="G105" s="18">
-        <v>1981153</v>
+        <v>1000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3459,19 +3462,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F106" s="18">
-        <v>84000</v>
+        <v>36341</v>
       </c>
       <c r="G106" s="18">
-        <v>3909487</v>
+        <v>1000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3482,16 +3485,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D107" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E107" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F107" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G107" s="18">
         <v>1000000</v>
@@ -3505,16 +3508,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D108" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G108" s="18">
         <v>1000000</v>
@@ -3528,19 +3531,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F109" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G109" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3551,13 +3554,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F110" s="18">
         <v>40000</v>
@@ -3574,13 +3577,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F111" s="18">
         <v>40000</v>
@@ -3597,13 +3600,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
@@ -3620,13 +3623,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3643,13 +3646,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F114" s="18">
         <v>40000</v>
@@ -3666,13 +3669,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
@@ -3689,13 +3692,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F116" s="18">
         <v>40000</v>
@@ -3712,13 +3715,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F117" s="18">
         <v>40000</v>
@@ -3735,13 +3738,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F118" s="18">
         <v>40000</v>
@@ -3758,19 +3761,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F119" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G119" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3781,13 +3784,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="F120" s="18">
         <v>40000</v>
@@ -3804,13 +3807,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
@@ -3827,13 +3830,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
@@ -3850,16 +3853,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F123" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G123" s="18">
         <v>1000000</v>
@@ -3873,16 +3876,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F124" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
         <v>1000000</v>
@@ -3896,13 +3899,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D125" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F125" s="18">
         <v>40000</v>
@@ -3919,13 +3922,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D126" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F126" s="18">
         <v>40000</v>
@@ -3942,13 +3945,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D127" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F127" s="18">
         <v>40000</v>
@@ -3965,13 +3968,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D128" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F128" s="18">
         <v>40000</v>
@@ -3988,19 +3991,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="F129" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G129" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4011,13 +4014,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="F130" s="18">
         <v>40000</v>
@@ -4034,13 +4037,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F131" s="18">
         <v>40000</v>
@@ -4057,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F132" s="18">
         <v>40000</v>
@@ -4080,13 +4083,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="F133" s="18">
         <v>40000</v>
@@ -4103,13 +4106,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="F134" s="18">
         <v>40000</v>
@@ -4126,13 +4129,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="F135" s="18">
         <v>40000</v>
@@ -4149,13 +4152,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="F136" s="18">
         <v>40000</v>
@@ -4172,13 +4175,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F137" s="18">
         <v>40000</v>
@@ -4195,13 +4198,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="F138" s="18">
         <v>40000</v>
@@ -4218,19 +4221,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="F139" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G139" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4241,13 +4244,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F140" s="18">
         <v>40000</v>
@@ -4264,16 +4267,16 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="F141" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G141" s="18">
         <v>1000000</v>
@@ -4287,16 +4290,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F142" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G142" s="18">
         <v>1000000</v>
@@ -4310,13 +4313,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D143" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="F143" s="18">
         <v>40000</v>
@@ -4333,13 +4336,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D144" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="F144" s="18">
         <v>40000</v>
@@ -4356,13 +4359,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D145" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="F145" s="18">
         <v>40000</v>
@@ -4379,13 +4382,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D146" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="F146" s="18">
         <v>40000</v>
@@ -4402,13 +4405,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D147" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="F147" s="18">
         <v>40000</v>
@@ -4425,13 +4428,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D148" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="F148" s="18">
         <v>40000</v>
@@ -4448,19 +4451,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F149" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G149" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4471,13 +4474,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F150" s="18">
         <v>40000</v>
@@ -4494,13 +4497,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F151" s="18">
         <v>40000</v>
@@ -4517,13 +4520,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F152" s="18">
         <v>40000</v>
@@ -4540,13 +4543,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F153" s="18">
         <v>40000</v>
@@ -4563,13 +4566,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F154" s="18">
         <v>40000</v>
@@ -4586,13 +4589,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F155" s="18">
         <v>40000</v>
@@ -4609,13 +4612,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F156" s="18">
         <v>40000</v>
@@ -4632,13 +4635,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F157" s="18">
         <v>40000</v>
@@ -4655,13 +4658,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F158" s="18">
         <v>40000</v>
@@ -4678,19 +4681,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F159" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G159" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4701,13 +4704,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F160" s="18">
         <v>40000</v>
@@ -4724,13 +4727,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F161" s="18">
         <v>40000</v>
@@ -4747,13 +4750,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F162" s="18">
         <v>40000</v>
@@ -4770,13 +4773,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F163" s="18">
         <v>40000</v>
@@ -4793,13 +4796,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="F164" s="18">
         <v>40000</v>
@@ -4816,13 +4819,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F165" s="18">
         <v>40000</v>
@@ -4839,13 +4842,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F166" s="18">
         <v>40000</v>
@@ -4862,13 +4865,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F167" s="18">
         <v>40000</v>
@@ -4885,13 +4888,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F168" s="18">
         <v>40000</v>
@@ -4908,19 +4911,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="F169" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G169" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4931,13 +4934,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F170" s="18">
         <v>40000</v>
@@ -4954,13 +4957,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F171" s="18">
         <v>40000</v>
@@ -4977,13 +4980,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="F172" s="18">
         <v>40000</v>
@@ -5000,13 +5003,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="F173" s="18">
         <v>40000</v>
@@ -5023,13 +5026,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F174" s="18">
         <v>40000</v>
@@ -5046,13 +5049,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="F175" s="18">
         <v>40000</v>
@@ -5069,13 +5072,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="F176" s="18">
         <v>40000</v>
@@ -5092,13 +5095,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="F177" s="18">
         <v>40000</v>
@@ -5115,16 +5118,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F178" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G178" s="18">
         <v>1000000</v>
@@ -5138,19 +5141,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F179" s="18">
-        <v>36341</v>
+        <v>79246</v>
       </c>
       <c r="G179" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5161,13 +5164,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F180" s="18">
         <v>40000</v>
@@ -5184,13 +5187,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F181" s="18">
         <v>40000</v>
@@ -5207,13 +5210,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="F182" s="18">
         <v>40000</v>
@@ -5230,13 +5233,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F183" s="18">
         <v>40000</v>
@@ -5253,13 +5256,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="F184" s="18">
         <v>40000</v>
@@ -5276,13 +5279,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F185" s="18">
         <v>40000</v>
@@ -5299,13 +5302,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F186" s="18">
         <v>40000</v>
@@ -5322,13 +5325,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="F187" s="18">
         <v>40000</v>
@@ -5345,13 +5348,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F188" s="18">
         <v>40000</v>
@@ -5368,19 +5371,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F189" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G189" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5391,13 +5394,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F190" s="18">
         <v>40000</v>
@@ -5414,13 +5417,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="F191" s="18">
         <v>40000</v>
@@ -5437,13 +5440,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F192" s="18">
         <v>40000</v>
@@ -5460,13 +5463,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F193" s="18">
         <v>40000</v>
@@ -5483,13 +5486,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F194" s="18">
         <v>40000</v>
@@ -5506,13 +5509,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F195" s="18">
         <v>40000</v>
@@ -5529,16 +5532,16 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F196" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G196" s="18">
         <v>1000000</v>
@@ -5552,16 +5555,16 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F197" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G197" s="18">
         <v>1000000</v>
@@ -5575,13 +5578,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F198" s="18">
         <v>40000</v>
@@ -5598,19 +5601,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F199" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G199" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5621,13 +5624,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="F200" s="18">
         <v>40000</v>
@@ -5644,13 +5647,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F201" s="18">
         <v>40000</v>
@@ -5667,13 +5670,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="F202" s="18">
         <v>40000</v>
@@ -5690,13 +5693,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="F203" s="18">
         <v>40000</v>
@@ -5713,13 +5716,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="F204" s="18">
         <v>40000</v>
@@ -5736,13 +5739,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F205" s="18">
         <v>40000</v>
@@ -5759,13 +5762,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="F206" s="18">
         <v>40000</v>
@@ -5782,13 +5785,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F207" s="18">
         <v>40000</v>
@@ -5805,13 +5808,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="F208" s="18">
         <v>40000</v>
@@ -5828,19 +5831,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F209" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G209" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5851,13 +5854,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="F210" s="18">
         <v>40000</v>
@@ -5874,13 +5877,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="F211" s="18">
         <v>40000</v>
@@ -5897,13 +5900,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F212" s="18">
         <v>40000</v>
@@ -5920,13 +5923,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F213" s="18">
         <v>40000</v>
@@ -5943,16 +5946,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="F214" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G214" s="18">
         <v>1000000</v>
@@ -5966,16 +5969,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F215" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G215" s="18">
         <v>1000000</v>
@@ -5989,13 +5992,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F216" s="18">
         <v>40000</v>
@@ -6012,13 +6015,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F217" s="18">
         <v>40000</v>
@@ -6035,13 +6038,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F218" s="18">
         <v>40000</v>
@@ -6058,19 +6061,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F219" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G219" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6081,13 +6084,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F220" s="18">
         <v>40000</v>
@@ -6104,13 +6107,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F221" s="18">
         <v>40000</v>
@@ -6127,13 +6130,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F222" s="18">
         <v>40000</v>
@@ -6150,13 +6153,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F223" s="18">
         <v>40000</v>
@@ -6173,13 +6176,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F224" s="18">
         <v>40000</v>
@@ -6196,13 +6199,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F225" s="18">
         <v>40000</v>
@@ -6219,13 +6222,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F226" s="18">
         <v>40000</v>
@@ -6242,13 +6245,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="F227" s="18">
         <v>40000</v>
@@ -6265,13 +6268,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F228" s="18">
         <v>40000</v>
@@ -6288,19 +6291,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F229" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G229" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6311,13 +6314,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F230" s="18">
         <v>40000</v>
@@ -6334,13 +6337,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F231" s="18">
         <v>40000</v>
@@ -6357,16 +6360,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F232" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G232" s="18">
         <v>1000000</v>
@@ -6380,16 +6383,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="F233" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G233" s="18">
         <v>1000000</v>
@@ -6403,13 +6406,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F234" s="18">
         <v>40000</v>
@@ -6426,13 +6429,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="F235" s="18">
         <v>40000</v>
@@ -6449,13 +6452,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F236" s="18">
         <v>40000</v>
@@ -6472,13 +6475,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F237" s="18">
         <v>40000</v>
@@ -6495,13 +6498,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="F238" s="18">
         <v>40000</v>
@@ -6518,19 +6521,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="F239" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G239" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6541,13 +6544,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F240" s="18">
         <v>40000</v>
@@ -6564,13 +6567,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="F241" s="18">
         <v>40000</v>
@@ -6587,13 +6590,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F242" s="18">
         <v>40000</v>
@@ -6610,13 +6613,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="F243" s="18">
         <v>40000</v>
@@ -6633,13 +6636,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F244" s="18">
         <v>40000</v>
@@ -6656,13 +6659,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F245" s="18">
         <v>40000</v>
@@ -6679,13 +6682,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F246" s="18">
         <v>40000</v>
@@ -6702,13 +6705,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="F247" s="18">
         <v>40000</v>
@@ -6725,13 +6728,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="F248" s="18">
         <v>40000</v>
@@ -6748,19 +6751,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F249" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G249" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6771,16 +6774,16 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="F250" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G250" s="18">
         <v>1000000</v>
@@ -6794,16 +6797,16 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F251" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G251" s="18">
         <v>1000000</v>
@@ -6817,13 +6820,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F252" s="18">
         <v>40000</v>
@@ -6840,13 +6843,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="F253" s="18">
         <v>40000</v>
@@ -6863,13 +6866,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F254" s="18">
         <v>40000</v>
@@ -6886,13 +6889,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="F255" s="18">
         <v>40000</v>
@@ -6909,13 +6912,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="F256" s="18">
         <v>40000</v>
@@ -6932,13 +6935,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F257" s="18">
         <v>40000</v>
@@ -6955,13 +6958,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F258" s="18">
         <v>40000</v>
@@ -6978,19 +6981,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="F259" s="18">
-        <v>40000</v>
+        <v>79246</v>
       </c>
       <c r="G259" s="18">
-        <v>1000000</v>
+        <v>1981153</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -7001,13 +7004,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="F260" s="18">
         <v>40000</v>
@@ -7024,13 +7027,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F261" s="18">
         <v>40000</v>
@@ -7047,13 +7050,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="F262" s="18">
         <v>40000</v>
@@ -7070,13 +7073,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F263" s="18">
         <v>40000</v>
@@ -7093,13 +7096,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F264" s="18">
         <v>40000</v>
@@ -7116,13 +7119,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F265" s="18">
         <v>40000</v>
@@ -7139,13 +7142,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F266" s="18">
         <v>40000</v>
@@ -7162,13 +7165,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F267" s="18">
         <v>40000</v>
@@ -7185,16 +7188,16 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="F268" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G268" s="18">
         <v>1000000</v>
@@ -7208,16 +7211,16 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="F269" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G269" s="18">
         <v>1000000</v>
@@ -7231,13 +7234,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F270" s="18">
         <v>40000</v>
@@ -7254,13 +7257,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="F271" s="18">
         <v>40000</v>
@@ -7277,13 +7280,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F272" s="18">
         <v>40000</v>
@@ -7300,13 +7303,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F273" s="18">
         <v>40000</v>
@@ -7323,13 +7326,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="F274" s="18">
         <v>40000</v>
@@ -7346,13 +7349,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="F275" s="18">
         <v>40000</v>
@@ -7369,13 +7372,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="F276" s="18">
         <v>40000</v>
@@ -7392,13 +7395,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="F277" s="18">
         <v>40000</v>
@@ -7415,13 +7418,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F278" s="18">
         <v>40000</v>
@@ -7438,13 +7441,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="F279" s="18">
         <v>40000</v>
@@ -7461,13 +7464,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="F280" s="18">
         <v>40000</v>
@@ -7484,13 +7487,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="F281" s="18">
         <v>40000</v>
@@ -7507,13 +7510,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="F282" s="18">
         <v>40000</v>
@@ -7530,13 +7533,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="F283" s="18">
         <v>40000</v>
@@ -7553,13 +7556,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="F284" s="18">
         <v>40000</v>
@@ -7576,13 +7579,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F285" s="18">
         <v>40000</v>
@@ -7599,16 +7602,16 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E286" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D286" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E286" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F286" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G286" s="18">
         <v>1000000</v>
@@ -7618,42 +7621,54 @@
       <c r="J286" s="20"/>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B287" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C287" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D287" s="23" t="s">
+      <c r="B287" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E287" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E287" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F287" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G287" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H287" s="25"/>
-      <c r="I287" s="25"/>
-      <c r="J287" s="26"/>
-    </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B292" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C292" s="32"/>
-      <c r="H292" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I292" s="1"/>
-      <c r="J292" s="1"/>
+      <c r="F287" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G287" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H287" s="19"/>
+      <c r="I287" s="19"/>
+      <c r="J287" s="20"/>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B288" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E288" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F288" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G288" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H288" s="25"/>
+      <c r="I288" s="25"/>
+      <c r="J288" s="26"/>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B293" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C293" s="32"/>
       <c r="H293" s="1" t="s">
@@ -7662,12 +7677,23 @@
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
     </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B294" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C294" s="32"/>
+      <c r="H294" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B294:C294"/>
     <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="H294:J294"/>
     <mergeCell ref="H293:J293"/>
-    <mergeCell ref="H292:J292"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
